--- a/06-10-2019-18.19.xlsx
+++ b/06-10-2019-18.19.xlsx
@@ -1,23 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universitas Muhammadiyah Malang\Statistik &amp; Probabilitas\Data Kendaraan\dataKendaraan-master\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55583573-9A0B-46B9-ADEB-6F387D583907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -54,15 +45,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,52 +58,54 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -307,7 +297,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="9525" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -316,13 +306,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="25400" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="38100" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -332,7 +322,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="20000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -341,7 +331,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -350,7 +340,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -360,12 +350,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -396,7 +386,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -415,7 +405,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -427,110 +417,437 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>125</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>140</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>108</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.71"/>
+    <col customWidth="1" min="2" max="2" width="17.14"/>
+    <col customWidth="1" min="3" max="3" width="18.29"/>
+    <col customWidth="1" min="4" max="11" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>145.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>164.0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>152.0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="11" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1"/>
+    <row r="2" ht="14.25" customHeight="1"/>
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="11" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1"/>
+    <row r="2" ht="14.25" customHeight="1"/>
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>